--- a/ExcelReports/Examiner.xlsx
+++ b/ExcelReports/Examiner.xlsx
@@ -35,25 +35,25 @@
     <t>Курочка Константин Сергеевич</t>
   </si>
   <si>
-    <t>4,96</t>
+    <t>5,16</t>
   </si>
   <si>
     <t>Великович Лев Липович</t>
   </si>
   <si>
-    <t>4,75</t>
+    <t>4,62</t>
   </si>
   <si>
     <t>Астраханцев Сергей Евгеньевич</t>
   </si>
   <si>
-    <t>4,5</t>
+    <t>4,67</t>
   </si>
   <si>
     <t>Пузенко Иван Николаевич</t>
   </si>
   <si>
-    <t>5,36</t>
+    <t>5,73</t>
   </si>
 </sst>
 </file>
